--- a/output/10011.xlsx
+++ b/output/10011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>24. September 2025. 12:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+          <t>24. rujan 2025. 12:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Bill Of Materials</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>Revision</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>Product Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12201392</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Part</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12201392</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lüftungsgitter links hinten</t>
         </is>
       </c>
     </row>
@@ -508,22 +484,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>12433001</v>
+        <v>12201392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12433001</v>
+        <v>12201392</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bolzen mit Lasche</t>
+          <t>Lüftungsgitter links hinten</t>
         </is>
       </c>
     </row>
@@ -532,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>12633002</v>
+        <v>12433001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -540,10 +516,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12633002</v>
+        <v>12433001</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -555,27 +531,23 @@
       <c r="A8" t="n">
         <v>1</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>13214053 Zukauf</t>
-        </is>
+      <c r="B8" t="n">
+        <v>12633002</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Assembly</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13214053 Zukauf</t>
-        </is>
+      <c r="D8" t="n">
+        <v>12633002</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Antriebseinheit kompl. Deutz TD 2.9 L4</t>
+          <t>Bolzen mit Lasche</t>
         </is>
       </c>
     </row>
@@ -583,23 +555,27 @@
       <c r="A9" t="n">
         <v>1</v>
       </c>
-      <c r="B9" t="n">
-        <v>13301056</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13214053 Zukauf</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Part</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>13301056</v>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13214053 Zukauf</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hydrauliköltankdeckel</t>
+          <t>Antriebseinheit kompl. Deutz TD 2.9 L4</t>
         </is>
       </c>
     </row>
@@ -608,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>13301104</v>
+        <v>13301056</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -616,23 +592,23 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13301104</v>
+        <v>13301056</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Haltebügel</t>
+          <t>Hydrauliköltankdeckel</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>13301132</v>
+        <v>13301104</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -640,23 +616,23 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13301132</v>
+        <v>13301104</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Verschleißschiene Pfb.1200</t>
+          <t>Haltebügel</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>13301393</v>
+        <v>13301132</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -664,14 +640,14 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13301393</v>
+        <v>13301132</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Servicedeckel hinten</t>
+          <t>Verschleißschiene Pfb.1200</t>
         </is>
       </c>
     </row>
@@ -680,22 +656,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>13301422</v>
+        <v>13301393</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13301422</v>
+        <v>13301393</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rahmen kompl. Pfb.1200, Ra.1350</t>
+          <t>Servicedeckel hinten</t>
         </is>
       </c>
     </row>
@@ -704,22 +680,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>13304031</v>
+        <v>13301422</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Part</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13304031</v>
+        <v>13301422</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Servicedeckel Kotflügel links hinten</t>
+          <t>Rahmen kompl. Pfb.1200, Ra.1350</t>
         </is>
       </c>
     </row>
@@ -727,27 +703,23 @@
       <c r="A15" t="n">
         <v>1</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>13304085 Zukauf</t>
-        </is>
+      <c r="B15" t="n">
+        <v>13304031</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Assembly</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>13304085 Zukauf</t>
-        </is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13304031</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leitungsschacht kompl. Ra. 1350 Sonder</t>
+          <t>Servicedeckel Kotflügel links hinten</t>
         </is>
       </c>
     </row>
@@ -755,23 +727,27 @@
       <c r="A16" t="n">
         <v>1</v>
       </c>
-      <c r="B16" t="n">
-        <v>13304129</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13304085 Zukauf</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Part</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>13304129</v>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13304085 Zukauf</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trittblech vor der Kabine</t>
+          <t>Leitungsschacht kompl. Ra. 1350 Sonder</t>
         </is>
       </c>
     </row>
@@ -779,27 +755,23 @@
       <c r="A17" t="n">
         <v>1</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>13304130 - Zukauf</t>
-        </is>
+      <c r="B17" t="n">
+        <v>13304129</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Assembly</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13304130 - Zukauf</t>
-        </is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13304129</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rahmenaufbau kompl. Deutz TD 2.9 L4 Stage V</t>
+          <t>Trittblech vor der Kabine</t>
         </is>
       </c>
     </row>
@@ -807,23 +779,27 @@
       <c r="A18" t="n">
         <v>1</v>
       </c>
-      <c r="B18" t="n">
-        <v>13305040</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13304130 - Zukauf</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Assembly</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>13305040</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13304130 - Zukauf</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Führungshebel kompl. am Rahmen, Ra.1300</t>
+          <t>Rahmenaufbau kompl. Deutz TD 2.9 L4 Stage V</t>
         </is>
       </c>
     </row>
@@ -832,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>13306030</v>
+        <v>13305040</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -840,14 +816,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13306030</v>
+        <v>13305040</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zugstange kompl. Sonder</t>
+          <t>Führungshebel kompl. am Rahmen, Ra.1300</t>
         </is>
       </c>
     </row>
@@ -856,22 +832,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>13306176</v>
+        <v>13306030</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Part</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13306176</v>
+        <v>13306030</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Plattform vorne Pfb. 1200</t>
+          <t>Zugstange kompl. Sonder</t>
         </is>
       </c>
     </row>
@@ -880,22 +856,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>13306213</v>
+        <v>13306176</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13306213</v>
+        <v>13306176</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tränenblechplattform kompl. Pfb.1200</t>
+          <t>Plattform vorne Pfb. 1200</t>
         </is>
       </c>
     </row>
@@ -904,22 +880,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>13401087</v>
+        <v>13306213</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Part</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13401087</v>
+        <v>13306213</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Servicedeckel unten</t>
+          <t>Tränenblechplattform kompl. Pfb.1200</t>
         </is>
       </c>
     </row>
@@ -928,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>13401088</v>
+        <v>13401087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -936,7 +912,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13401088</v>
+        <v>13401087</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -949,10 +925,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>13401095</v>
+        <v>13401088</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -960,14 +936,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13401095</v>
+        <v>13401088</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lampenschutzgitter vorne</t>
+          <t>Servicedeckel unten</t>
         </is>
       </c>
     </row>
@@ -976,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>13401804</v>
+        <v>13401095</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -984,47 +960,47 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13401804</v>
+        <v>13401095</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Schutzblech für Leitungswiderstand</t>
+          <t>Lampenschutzgitter vorne</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>13405144</v>
+        <v>13401804</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13405144</v>
+        <v>13401804</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Führungshebelzapfen komplett</t>
+          <t>Schutzblech für Leitungswiderstand</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>13801071</v>
+        <v>13405144</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1032,14 +1008,14 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13801071</v>
+        <v>13405144</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lampenhalter kompl.</t>
+          <t>Führungshebelzapfen komplett</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>14033006</v>
+        <v>13801071</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1056,38 +1032,38 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14033006</v>
+        <v>13801071</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bolzen mit Lasche</t>
+          <t>Lampenhalter kompl.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>15101044</v>
+        <v>14033006</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Part</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15101044</v>
+        <v>14033006</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tankdeckel</t>
+          <t>Bolzen mit Lasche</t>
         </is>
       </c>
     </row>
@@ -1096,46 +1072,46 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>15133014</v>
+        <v>15101044</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Assembly</t>
+          <t>Part</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15133014</v>
+        <v>15101044</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bolzen mit Lasche</t>
+          <t>Tankdeckel</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>95010040</v>
+        <v>15133014</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Part</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>95010040</v>
+        <v>15133014</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Bolzen mit Lasche</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>96002010</v>
+        <v>95010040</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1152,23 +1128,23 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>96002010</v>
+        <v>95010040</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Federring</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>13206202</v>
+        <v>96002010</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1176,14 +1152,14 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13206202</v>
+        <v>96002010</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lastabweiser mitte</t>
+          <t>Federring</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>13206201</v>
+        <v>13206202</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1200,14 +1176,14 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13206201</v>
+        <v>13206202</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lastabweiser vorne</t>
+          <t>Lastabweiser mitte</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1192,7521 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
+        <v>13206201</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>13206201</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lastabweiser vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
         <v>13206203</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Part</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>13206203</v>
       </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Lastabweiser vorne/hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 12433001</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>310008</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>310008</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sicherungslasche für Bolzen Ø35</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12430002</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>12430002</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolzen </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 12633002</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12610002</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>12610002</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sicherungslasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12630002</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>12630002</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bolzen Ø45x263</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13214053 Zukauf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13205025</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>13205025</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kühlerhalter Kpl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12205081</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>12205081</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kühlerhalter oben</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13205026</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>13205026</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Halteblech  für Stecker</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13204030</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>13204030</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hitzeschutzblech oben</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13204031</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>13204031</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hitzeschutzblech unten kompl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>13204029</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>13204029</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Hitzeschutzblech unten</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="n">
+        <v>95400008</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>95400008</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Skt Mutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13205005</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>13205005</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Motorkonsole hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13205006</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>13205006</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Motorkonsole links vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13205007</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>13205007</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Motorkonsole rechts vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>13205008</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>13205008</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kühleraufhängung kompl. unten links</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>13205009</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>13205009</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kühleraufhängung unten links</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12205080</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>12205080</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Versteifungsrippe Kühleraufhängung</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>13205010</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>13205010</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kühleraufhängung kompl. </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13205011</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>13205011</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kühleraufhängung unten rechts</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12205080</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>12205080</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Versteifungsrippe Kühleraufhängung</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13214048</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>13214048</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Halteplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13414231</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>13414231</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Elektrobox kompl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13201056</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>13201056</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Halteplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13401530</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>13401530</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Rahmenblech für Elektrobox</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13414233</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>13414233</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kastenblech für Elektrobox</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13414239</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>13414239</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Halteplatte für Twinbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>13401532</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>13401532</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Servicedeckel für Elektrobox</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13205027</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>13205027</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Haltewinkel für Stecker</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13301422</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12101047</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>12101047</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Rundstab</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12205070</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>12205070</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Motorkonsole hinten Deutz TD 2.9 L4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12205073</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>12205073</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Halterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>12401061</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>12401061</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Scheinwerferhalterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="n">
+        <v>12401232</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>12401232</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Haltewinkel</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>13201032</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>13201032</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Verschlussblech Seitenteil links hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13201033</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>13201033</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Seitenblech  links hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>13201034</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>13201034</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Seitenblech  rechts hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>13201035</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>13201035</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Wannenblech Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="n">
+        <v>13201046</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>13201046</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Schutzblech für Hydraulikschauglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13205021</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>13205021</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Motorkonsole hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13205022</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>13205022</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Motorkonsole hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13301035</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>13301035</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Seitenteil  rechts vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>13301038</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>13301038</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Rahmenwand vorne Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13301050</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13301050</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>13301051</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>13301051</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Auflageblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>13301085</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13301085</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Achsträger vorne  Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>13301016</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>13301016</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Profilwand links</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>13301017</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13301017</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Profilwand rechts</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="n">
+        <v>13301086</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13301086</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kastenprofil innen Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="n">
+        <v>13301087</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13301087</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Auflageeisen</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>13301088</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>13301088</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kotflügel links vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13301089</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>13301089</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kotflügel rechts vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13301095</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13301095</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Seitenteil links kompl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13301033</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>13301033</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Trittblech unten</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13301093</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>13301093</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Trittblech oben</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13301094</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>13301094</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Seitenteil links vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13401052</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>13401052</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kotflügeldeckel</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13301101</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>13301101</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Halterung für Kamera</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13301121</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>13301121</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Achsträger hinten Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13301076</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>13301076</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Hydrauliköltankblech Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13301077</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>13301077</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Dieseltankblech Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13301078</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>13301078</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bodenblech Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13301122</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>13301122</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Seitenblech links</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>13301123</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>13301123</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Seitenblech rechts</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>13401042</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>13401042</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Rohrstutzen für Dieseltank</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13401043</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>13401043</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Schlauchhalterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="n">
+        <v>13401045</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>13401045</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Dieselsaugrohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="n">
+        <v>93400019</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>93400019</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Rohrschelle 1xø16</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>93400019x1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>93400019x1</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Anschweißplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>93400019x2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>93400019x2</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Schellenhälfte</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>93400019x3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>93400019x3</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Deckplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>95006035</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>95006035</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" t="n">
+        <v>95415022</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>95415022</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Skt Mutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" t="n">
+        <v>97600457</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>97600457</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>97600461</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>97600461</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" t="n">
+        <v>97600467</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>97600467</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" t="n">
+        <v>97600470</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>97600470</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>97600480</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>97600480</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>97601048</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>97601048</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1" Gewinderohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>13401598</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>13401598</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Flanschblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>13401899</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>13401899</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Halteplatte für Kompensator</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13401899_MIR1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>13401899_MIR1</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Halteplatte für Kompensator</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="n">
+        <v>13301124</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>13301124</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kotflügel rechts hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>13301214</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>13301214</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kotflügel Sonder links hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>13301126</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>13301126</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Seitenteil rechts hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="n">
+        <v>13301127</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>13301127</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Seitenteil links hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13301130</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13301130</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Batterietrog kompl. für DQr-Serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13301129</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>13301129</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Batteriekasten</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13301108</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>13301108</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Anschlag für Batterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12401107</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>12401107</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Halterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>13301146</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>13301146</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Halterung für Sicherungsbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>13301327</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>13301327</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Herzstück kompl. Pfb. 1200, Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>13301007</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>13301007</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Herzstück Vorderteil</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12201061</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>12201061</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Ausfahrschiene vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13301009</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>13301009</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Trägerrohr Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>13301010</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>13301010</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Schottblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2</v>
+      </c>
+      <c r="B152" t="n">
+        <v>13301011</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>13301011</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" t="n">
+        <v>13301012</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>13301012</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Zurrlasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>13301058</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>13301058</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Zusatzgewicht</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>13301008</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>13301008</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Herzstück Hinterteil Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12201060</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>12201060</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ausfahrschiene hinten Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13301009</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>13301009</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Trägerrohr Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13301010</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>13301010</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Schottblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" t="n">
+        <v>13301011</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>13301011</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2</v>
+      </c>
+      <c r="B160" t="n">
+        <v>13301012</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>13301012</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Zurrlasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="n">
+        <v>13301058</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>13301058</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Zusatzgewicht</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" t="n">
+        <v>13301112</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>13301112</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Verbindungseisen</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2</v>
+      </c>
+      <c r="B163" t="n">
+        <v>13401020</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>13401020</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Optionshalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>13301328</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>13301328</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Herzstück Seitenteil Pfb.1200, Ra.1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12401097</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>12401097</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Verteiler kurz</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12401095</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>12401095</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Halteeisen kurz</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>97600370</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>97600370</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>T-Stutzen T12L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12401098</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>12401098</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Verteiler lang</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12401096</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>12401096</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Halteeisen lang</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>97600370</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>97600370</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>T-Stutzen T12L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12601010</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>12601010</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Ausfahrzylinderhalterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12601012</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>12601012</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Rippe</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12601013</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>12601013</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Zylinderlasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>13301113</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>13301113</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Seitenwand links Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>13301114</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>13301114</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Gewichtsplatte oben Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>13301115</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>13301115</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Gewichtsplatte oben 2 Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>13301116</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>13301116</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Gewichtsplatte unten Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" t="n">
+        <v>13401019</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>13401019</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>13301394</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>13301394</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Rahmenwand hinten  Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>13305030</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>13305030</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Zylinderaufhängung links vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12405009</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>12405009</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Anschweißbüchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12405024</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>12405024</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Gleitscheibenhalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>13205017</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>13205017</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Verbindungsplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2</v>
+      </c>
+      <c r="B184" t="n">
+        <v>13305031</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>13305031</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>13305035</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>13305035</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Achsaufhängung rechts vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>13305033</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>13305033</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Verbindungsplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>13305034</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>13305034</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>13305034_1</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>13305034_1</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>13401046</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>13401046</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Zugstangenhalterung vorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>13401067</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>13401067</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Halteplatte für Ölstandsanzeiger</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="n">
+        <v>13401069</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>13401069</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Schraubblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="n">
+        <v>13401078</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>13401078</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Zugstangenhalterung</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" t="n">
+        <v>13401082</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>13401082</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Haltewinkel</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B194" t="n">
+        <v>13401084</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>13401084</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Gewindeblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="n">
+        <v>13401099</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>13401099</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Halterung Scheibenwaschbehälter</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4</v>
+      </c>
+      <c r="B196" t="n">
+        <v>13405035</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>13405035</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kabinenlager</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>76</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Haltebügel für Kabelbinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>13405055</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>13405055</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Achsaufhängung  rechts hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12405037</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>12405037</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sicherungsblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>13405053</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>13405053</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Verbindungsplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="n">
+        <v>13405054</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>13405054</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13405054_1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>13405054_1</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13405056</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>13405056</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Zylinderaufhängung links hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13405057</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>13405057</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>13405057_1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>13405057_1</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13405052</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>13405052</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Verbindungsplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13405051</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>13405051</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Zentrierscheibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>13405051_1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>13405051_1</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Zentrierscheibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13405058</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>13405058</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Achsführung hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2</v>
+      </c>
+      <c r="B210" t="n">
+        <v>12405023</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>12405023</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Gleitscheibenhalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" t="n">
+        <v>13405059</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>13405059</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Führungsblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13405060</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>13405060</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Achsaufhängung  rechts hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12405037</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>12405037</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sicherungsblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13405053</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>13405053</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Verbindungsplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13405054_2</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>13405054_2</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>13405054_3</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>13405054_3</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Wangenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="n">
+        <v>13405086</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>13405086</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Konsole für Batteriehauptschalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13406005</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>13406005</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Zusatzgewicht</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="n">
+        <v>13417146</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>13417146</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Gewindeplatte für Schlauchschere</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2</v>
+      </c>
+      <c r="B220" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Anschlag</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4</v>
+      </c>
+      <c r="B221" t="n">
+        <v>95008040</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>95008040</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+      <c r="B222" t="n">
+        <v>95008070</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>95008070</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>4</v>
+      </c>
+      <c r="B223" t="n">
+        <v>95010040</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>95010040</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>8</v>
+      </c>
+      <c r="B224" t="n">
+        <v>95400020</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>95400020</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Skt Mutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2</v>
+      </c>
+      <c r="B225" t="n">
+        <v>95417028</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>95417028</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Flachmutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" t="n">
+        <v>97600470</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>97600470</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Anschweißverschraubung</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13201337</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>13201337</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Scheuerschutzblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13304085 Zukauf</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D232" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E232" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F232" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12404039</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>12404039</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Gewindelasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13304067</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>13304067</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Schlauchkanaldeckel Ra. 1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13304084</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>13304084</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Grundblech Schlauchkanal Ra. 1350 Sonder</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2</v>
+      </c>
+      <c r="B236" t="n">
+        <v>15101116</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>15101116</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Gewindeplatte 2-fach</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13304130 - Zukauf</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D241" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E241" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F241" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="n">
+        <v>13204009</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>13204009</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Schutzblech für Differenzdruckschalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" t="n">
+        <v>13204010</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>13204010</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Auspuffschutzblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>13204012</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>13204012</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Abdeckung</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" t="n">
+        <v>13204015</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>13204015</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Rahmenaufbau hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12204304</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>12204304</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Luftfilterhalter</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12204305</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>12204305</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Lastabweiser Luftansaugung</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="n">
+        <v>13204016</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>13204016</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Anschraubblech-Luftfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" t="n">
+        <v>13204017</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>13204017</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Lüftungsblech hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2</v>
+      </c>
+      <c r="B250" t="n">
+        <v>13204018</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>13204018</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Abdeckblech Teil 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13204020</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>13204020</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Zwischenstück für Luftansaugung</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="n">
+        <v>13204019</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>13204019</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Zwischenrohr für Luftansaugung</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12204343</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>12204343</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Befestigungsblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13404007</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>13404007</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13404009</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>13404009</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Lasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13404010</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>13404010</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Schraubblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>6</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Haltebügel für Kabelbinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3</v>
+      </c>
+      <c r="B258" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Anschlag</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>3</v>
+      </c>
+      <c r="B259" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Schweißbolzen Ø3x20</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>3</v>
+      </c>
+      <c r="B260" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Tellerclip Ø38x1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13204025</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>13204025</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Wartungsdeckel kompl. hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="n">
+        <v>13204023</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>13204023</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Abdeckung Teil 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1</v>
+      </c>
+      <c r="B263" t="n">
+        <v>13204024</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>13204024</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Wartungsdeckel hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2</v>
+      </c>
+      <c r="B264" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Tellerclip Ø38x1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2</v>
+      </c>
+      <c r="B265" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Schweißbolzen Ø3x20</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13404311</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>13404311</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Lasche GDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" t="n">
+        <v>13204050</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>13204050</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Auspuffträger</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" t="n">
+        <v>13204007</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>13204007</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Verbindungsblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" t="n">
+        <v>13204008</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>13204008</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Distanzblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1</v>
+      </c>
+      <c r="B270" t="n">
+        <v>13204049</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>13204049</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Auspuffträger</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1</v>
+      </c>
+      <c r="B271" t="n">
+        <v>13404029</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>13404029</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Deckblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>6</v>
+      </c>
+      <c r="B272" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Haltebügel für Kabelbinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2</v>
+      </c>
+      <c r="B273" t="n">
+        <v>95005016</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>95005016</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>8</v>
+      </c>
+      <c r="B274" t="n">
+        <v>95008020</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>95008020</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
+      <c r="B275" t="n">
+        <v>13304071</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>13304071</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Tankhaube kompl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" t="n">
+        <v>12404022</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>12404022</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Schutzbügel</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1</v>
+      </c>
+      <c r="B277" t="n">
+        <v>13204004</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>13204004</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Seitenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1</v>
+      </c>
+      <c r="B278" t="n">
+        <v>13304072</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>13304072</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Tankblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" t="n">
+        <v>13304077</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>13304077</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Auflageblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1</v>
+      </c>
+      <c r="B280" t="n">
+        <v>13404007</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>13404007</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Knotenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1</v>
+      </c>
+      <c r="B281" t="n">
+        <v>13404010</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>13404010</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Schraubblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1</v>
+      </c>
+      <c r="B282" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>15104006</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Anschlag</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1</v>
+      </c>
+      <c r="B283" t="n">
+        <v>91500096</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>91500096</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Tankeinfüllstutzen</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>5</v>
+      </c>
+      <c r="B284" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Schweißbolzen Ø3x20</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>5</v>
+      </c>
+      <c r="B285" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Tellerclip Ø38x1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1</v>
+      </c>
+      <c r="B286" t="n">
+        <v>13404009</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>13404009</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Lasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1</v>
+      </c>
+      <c r="B287" t="n">
+        <v>13304073</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>13304073</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Wartungsdeckel kompl. für Arbeitshydraulik</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1</v>
+      </c>
+      <c r="B288" t="n">
+        <v>13304074</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>13304074</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Wartungsdeckel für Arbeitshydraulik</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2</v>
+      </c>
+      <c r="B289" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>99900007</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Schweißbolzen Ø3x20</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2</v>
+      </c>
+      <c r="B290" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>99900008</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Tellerclip Ø38x1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2</v>
+      </c>
+      <c r="B291" t="n">
+        <v>13404311</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>13404311</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Lasche GDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1</v>
+      </c>
+      <c r="B292" t="n">
+        <v>13304075</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>13304075</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Konsolenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2</v>
+      </c>
+      <c r="B293" t="n">
+        <v>13404048</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>13404048</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Gewindelasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>4</v>
+      </c>
+      <c r="B294" t="n">
+        <v>13404049</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>13404049</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Gewindelasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1</v>
+      </c>
+      <c r="B295" t="n">
+        <v>15101116</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>15101116</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Gewindeplatte 2-fach</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1</v>
+      </c>
+      <c r="B296" t="n">
+        <v>13204048</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>13204048</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Halteplatte für Differenzdrucksensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13305040</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D301" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E301" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F301" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1</v>
+      </c>
+      <c r="B302" t="n">
+        <v>13305039</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>13305039</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Grundblech für Führungshebel Ra.1300</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1</v>
+      </c>
+      <c r="B303" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Lagerbüchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2</v>
+      </c>
+      <c r="B304" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Büchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1</v>
+      </c>
+      <c r="B305" t="n">
+        <v>93200269</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>93200269</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Anschlagpuffer</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1</v>
+      </c>
+      <c r="B306" t="n">
+        <v>96000006</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>96000006</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Scheibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1</v>
+      </c>
+      <c r="B307" t="n">
+        <v>95006025</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>95006025</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>4</v>
+      </c>
+      <c r="B308" t="n">
+        <v>93400032</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>93400032</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Aufbauschraube SRS AF 3 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>12</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>93400018x2</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>93400018x2</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Schellenhälfte</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>12</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>93400023x1</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>93400023x1</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Schellenhälfte</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>6</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>93400023x2</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>93400023x2</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Deckplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>6</v>
+      </c>
+      <c r="B312" t="n">
+        <v>95008035</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>95008035</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>93400019x2</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>93400019x2</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Schellenhälfte</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1</v>
+      </c>
+      <c r="B314" t="n">
+        <v>93400101</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>93400101</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Deckplatte</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2</v>
+      </c>
+      <c r="B315" t="n">
+        <v>95006045</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>95006045</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>4</v>
+      </c>
+      <c r="B316" t="n">
+        <v>92118010</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>92118010</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Pressarmatur 10L</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>4</v>
+      </c>
+      <c r="B317" t="n">
+        <v>92118014</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>92118014</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Pressarmatur 15L</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13306030</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B322" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C322" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D322" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E322" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F322" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1</v>
+      </c>
+      <c r="B323" t="n">
+        <v>13306031</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>13306031</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Zugstange Sonder</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1</v>
+      </c>
+      <c r="B324" t="n">
+        <v>13406133</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>13406133</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Halterung für Gasdruckfedern</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>8</v>
+      </c>
+      <c r="B325" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>13405038</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Haltebügel für Kabelbinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1</v>
+      </c>
+      <c r="B326" t="n">
+        <v>13405143</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>13405143</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Montageblech für Hochdruckfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13306213</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C331" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D331" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E331" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F331" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2</v>
+      </c>
+      <c r="B332" t="n">
+        <v>12404681</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>12404681</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Anschlageisen</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1</v>
+      </c>
+      <c r="B333" t="n">
+        <v>13306027</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>13306027</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Wartungsdeckel für Hydrauliköl</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1</v>
+      </c>
+      <c r="B334" t="n">
+        <v>12404703</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>12404703</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Deckel</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1</v>
+      </c>
+      <c r="B335" t="n">
+        <v>93200095</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>93200095</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scharnier </t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>93200095_1</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>93200095_1</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>93200095_2</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>93200095_2</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>93200095_3</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>93200095_3</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+      <c r="F338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1</v>
+      </c>
+      <c r="B339" t="n">
+        <v>13306178</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>13306178</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Plattform hinten Teil 1 Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1</v>
+      </c>
+      <c r="B340" t="n">
+        <v>13306214</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>13306214</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Plattform kompl. Hinten rechts</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+      <c r="B341" t="n">
+        <v>13306025</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>13306025</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Plattform hinten rechts</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1</v>
+      </c>
+      <c r="B342" t="n">
+        <v>13706229</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>13706229</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Lasche für Gasdruckdämpfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2</v>
+      </c>
+      <c r="B343" t="n">
+        <v>15204076</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>15204076</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Scharnier für Tränenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1</v>
+      </c>
+      <c r="B344" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Lagerbüchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1</v>
+      </c>
+      <c r="B345" t="n">
+        <v>15204047</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>15204047</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Gelenksbolzen</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2</v>
+      </c>
+      <c r="B346" t="n">
+        <v>15204077</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>15204077</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Lasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1</v>
+      </c>
+      <c r="B347" t="n">
+        <v>15204078</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>15204078</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Unterlage</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2</v>
+      </c>
+      <c r="B348" t="n">
+        <v>96000020</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>96000020</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Scheibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2</v>
+      </c>
+      <c r="B349" t="n">
+        <v>96404040</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>96404040</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Splint</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2</v>
+      </c>
+      <c r="B350" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Büchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1</v>
+      </c>
+      <c r="B351" t="n">
+        <v>13306215</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>13306215</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Plattform hinten links kompl. Pfb.1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1</v>
+      </c>
+      <c r="B352" t="n">
+        <v>13306023</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>13306023</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Plattform hinten links Pfb. 1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1</v>
+      </c>
+      <c r="B353" t="n">
+        <v>13706229</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>13706229</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Lasche für Gasdruckdämpfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2</v>
+      </c>
+      <c r="B354" t="n">
+        <v>15204076</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>15204076</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Scharnier für Tränenblech</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1</v>
+      </c>
+      <c r="B355" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>11501233</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Lagerbüchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1</v>
+      </c>
+      <c r="B356" t="n">
+        <v>15204047</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>15204047</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Gelenksbolzen</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2</v>
+      </c>
+      <c r="B357" t="n">
+        <v>15204077</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>15204077</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Lasche</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1</v>
+      </c>
+      <c r="B358" t="n">
+        <v>15204078</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>15204078</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Unterlage</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2</v>
+      </c>
+      <c r="B359" t="n">
+        <v>96000020</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>96000020</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Scheibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>2</v>
+      </c>
+      <c r="B360" t="n">
+        <v>96404040</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>96404040</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Splint</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>2</v>
+      </c>
+      <c r="B361" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>98501167</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Büchse</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13405144</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B366" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C366" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D366" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E366" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F366" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1</v>
+      </c>
+      <c r="B367" t="n">
+        <v>13401811</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>13401811</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Haltewinkel</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1</v>
+      </c>
+      <c r="B368" t="n">
+        <v>13430020</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>13430020</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Anschraubzapfen</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 13801071</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B373" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C373" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D373" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E373" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F373" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1</v>
+      </c>
+      <c r="B374" t="n">
+        <v>13801072</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>13801072</v>
+      </c>
+      <c r="E374" t="n">
+        <v>3</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Haltebügel</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1</v>
+      </c>
+      <c r="B375" t="n">
+        <v>13804018</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>13804018</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Lampenschutzgitter hinten</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 14033006</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B380" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C380" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D380" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E380" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F380" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1</v>
+      </c>
+      <c r="B381" t="n">
+        <v>310008</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>310008</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Sicherungslasche für Bolzen Ø35</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1</v>
+      </c>
+      <c r="B382" t="n">
+        <v>14030006</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>14030006</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Bolzen</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Bill Of Materials : 15133014</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C387" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D387" s="1" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="E387" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="F387" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1</v>
+      </c>
+      <c r="B388" t="n">
+        <v>310008</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>310008</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Sicherungslasche für Bolzen Ø35</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1</v>
+      </c>
+      <c r="B389" t="n">
+        <v>15130020</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Part</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>15130020</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Bolzen</t>
         </is>
       </c>
     </row>

--- a/output/10011.xlsx
+++ b/output/10011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F564"/>
+  <dimension ref="A1:F572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>24. rujan 2025. 13:25</t>
+          <t>24. rujan 2025. 14:15</t>
         </is>
       </c>
     </row>
@@ -10073,6 +10073,43 @@
         <is>
           <t>Zylinderlasche</t>
         </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Recapitulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Different parts:</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Total parts:</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>(Leaf parts raw):</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/output/10011.xlsx
+++ b/output/10011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F806"/>
+  <dimension ref="A1:F804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>24. rujan 2025. 14:48</t>
+          <t>24. rujan 2025. 15:03:25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bill Of Materials</t>
+          <t>Bill of Material: 10011</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 12433001</t>
+          <t>Bill of Material: 12433001</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 12633002</t>
+          <t>Bill of Material: 12633002</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13214053 Zukauf</t>
+          <t>Bill of Material: 13214053 Zukauf</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301422</t>
+          <t>Bill of Material: 13301422</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13304085 Zukauf</t>
+          <t>Bill of Material: 13304085 Zukauf</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13304130 - Zukauf</t>
+          <t>Bill of Material: 13304130 - Zukauf</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13305040</t>
+          <t>Bill of Material: 13305040</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13306030</t>
+          <t>Bill of Material: 13306030</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13306213</t>
+          <t>Bill of Material: 13306213</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13405144</t>
+          <t>Bill of Material: 13405144</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13801071</t>
+          <t>Bill of Material: 13801071</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 14033006</t>
+          <t>Bill of Material: 14033006</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 15133014</t>
+          <t>Bill of Material: 15133014</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13205025</t>
+          <t>Bill of Material: 13205025</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13204031</t>
+          <t>Bill of Material: 13204031</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13205008</t>
+          <t>Bill of Material: 13205008</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13205010</t>
+          <t>Bill of Material: 13205010</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13414231</t>
+          <t>Bill of Material: 13414231</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301085</t>
+          <t>Bill of Material: 13301085</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301095</t>
+          <t>Bill of Material: 13301095</t>
         </is>
       </c>
     </row>
@@ -6120,7 +6120,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301121</t>
+          <t>Bill of Material: 13301121</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301130</t>
+          <t>Bill of Material: 13301130</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301327</t>
+          <t>Bill of Material: 13301327</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13305030</t>
+          <t>Bill of Material: 13305030</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7174,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13305035</t>
+          <t>Bill of Material: 13305035</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13405055</t>
+          <t>Bill of Material: 13405055</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13405056</t>
+          <t>Bill of Material: 13405056</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13405058</t>
+          <t>Bill of Material: 13405058</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7730,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13405060</t>
+          <t>Bill of Material: 13405060</t>
         </is>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13204015</t>
+          <t>Bill of Material: 13204015</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13204025</t>
+          <t>Bill of Material: 13204025</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13204050</t>
+          <t>Bill of Material: 13204050</t>
         </is>
       </c>
     </row>
@@ -8702,7 +8702,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13304071</t>
+          <t>Bill of Material: 13304071</t>
         </is>
       </c>
     </row>
@@ -9049,7 +9049,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13304073</t>
+          <t>Bill of Material: 13304073</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13306027</t>
+          <t>Bill of Material: 13306027</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13306214</t>
+          <t>Bill of Material: 13306214</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13306215</t>
+          <t>Bill of Material: 13306215</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 93400019</t>
+          <t>Bill of Material: 93400019</t>
         </is>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301007</t>
+          <t>Bill of Material: 13301007</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301008</t>
+          <t>Bill of Material: 13301008</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13301328</t>
+          <t>Bill of Material: 13301328</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 13204020</t>
+          <t>Bill of Material: 13204020</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 93200095</t>
+          <t>Bill of Material: 93200095</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 15204076</t>
+          <t>Bill of Material: 15204076</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 15204076</t>
+          <t>Bill of Material: 15204076</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 12401097</t>
+          <t>Bill of Material: 12401097</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 12401098</t>
+          <t>Bill of Material: 12401098</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Bill Of Materials : 12601010</t>
+          <t>Bill of Material: 12601010</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Recapitulation</t>
+          <t>Recapitulation of: 10011</t>
         </is>
       </c>
     </row>
@@ -11339,51 +11339,84 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>Different parts (exploded quantities)</t>
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B573" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C573" s="1" t="inlineStr">
+        <is>
+          <t>Revision</t>
+        </is>
+      </c>
+      <c r="D573" s="1" t="inlineStr">
+        <is>
+          <t>Product Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>12201392</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Lüftungsgitter links hinten</t>
         </is>
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B575" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="C575" s="1" t="inlineStr">
-        <is>
-          <t>Revision</t>
-        </is>
-      </c>
-      <c r="D575" s="1" t="inlineStr">
-        <is>
-          <t>Product Description</t>
+      <c r="A575" t="n">
+        <v>4</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>310008</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Sicherungslasche für Bolzen Ø35</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>11501233</t>
+          <t>12430002</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Lagerbüchse</t>
+          <t>Bolzen</t>
         </is>
       </c>
     </row>
@@ -11393,17 +11426,17 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>12101047</t>
+          <t>12610002</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Rundstab</t>
+          <t>Sicherungslasche</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11446,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>12201060</t>
+          <t>12630002</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -11423,7 +11456,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Ausfahrschiene hinten Pfb. 1200</t>
+          <t>Bolzen Ø45x263</t>
         </is>
       </c>
     </row>
@@ -11433,17 +11466,17 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>12201061</t>
+          <t>12205081</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Ausfahrschiene vorne</t>
+          <t>Kühlerhalter oben</t>
         </is>
       </c>
     </row>
@@ -11453,7 +11486,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>12201392</t>
+          <t>13205026</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -11463,7 +11496,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Lüftungsgitter links hinten</t>
+          <t>Halteblech  für Stecker</t>
         </is>
       </c>
     </row>
@@ -11473,17 +11506,17 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>12204304</t>
+          <t>13204030</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Luftfilterhalter</t>
+          <t>Hitzeschutzblech oben</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11526,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>12204305</t>
+          <t>13204029</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -11503,17 +11536,17 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Lastabweiser Luftansaugung</t>
+          <t>Hitzeschutzblech unten</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>12204343</t>
+          <t>95400008</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -11523,7 +11556,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Befestigungsblech</t>
+          <t>Skt Mutter</t>
         </is>
       </c>
     </row>
@@ -11533,27 +11566,27 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>12205070</t>
+          <t>13205005</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Motorkonsole hinten Deutz TD 2.9 L4</t>
+          <t>Motorkonsole hinten</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>12205073</t>
+          <t>13205006</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -11563,17 +11596,17 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Halterung</t>
+          <t>Motorkonsole links vorne</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>12205080</t>
+          <t>13205007</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -11583,7 +11616,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Versteifungsrippe Kühleraufhängung</t>
+          <t>Motorkonsole rechts vorne</t>
         </is>
       </c>
     </row>
@@ -11593,17 +11626,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>12205081</t>
+          <t>13205009</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Kühlerhalter oben</t>
+          <t>Kühleraufhängung unten links</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11646,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>12401061</t>
+          <t>12205080</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -11623,7 +11656,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Scheinwerferhalterung</t>
+          <t>Versteifungsrippe Kühleraufhängung</t>
         </is>
       </c>
     </row>
@@ -11633,17 +11666,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>12401095</t>
+          <t>13205011</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Halteeisen kurz</t>
+          <t>Kühleraufhängung unten rechts</t>
         </is>
       </c>
     </row>
@@ -11653,37 +11686,37 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>12401096</t>
+          <t>13214048</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Halteeisen lang</t>
+          <t>Halteplatte</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>12401107</t>
+          <t>13201056</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Halterung</t>
+          <t>Halteplatte</t>
         </is>
       </c>
     </row>
@@ -11693,17 +11726,17 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>12401232</t>
+          <t>13401530</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Haltewinkel</t>
+          <t>Rahmenblech für Elektrobox</t>
         </is>
       </c>
     </row>
@@ -11713,17 +11746,17 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>12404022</t>
+          <t>13414233</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Schutzbügel</t>
+          <t>Kastenblech für Elektrobox</t>
         </is>
       </c>
     </row>
@@ -11733,37 +11766,37 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>12404039</t>
+          <t>13414239</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Gewindelasche</t>
+          <t>Halteplatte für Twinbox</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>12404681</t>
+          <t>13401532</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Anschlageisen</t>
+          <t>Servicedeckel für Elektrobox</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11806,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>12404703</t>
+          <t>13205027</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -11783,17 +11816,17 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Deckel</t>
+          <t>Haltewinkel für Stecker</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>12405009</t>
+          <t>13301056</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -11803,27 +11836,27 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Anschweißbüchse</t>
+          <t>Hydrauliköltankdeckel</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>12405023</t>
+          <t>13301104</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Gleitscheibenhalter</t>
+          <t>Haltebügel</t>
         </is>
       </c>
     </row>
@@ -11833,27 +11866,27 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>12405024</t>
+          <t>13301132</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Gleitscheibenhalter</t>
+          <t>Verschleißschiene Pfb.1200</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>12405037</t>
+          <t>13301393</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -11863,7 +11896,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Sicherungsblech</t>
+          <t>Servicedeckel hinten</t>
         </is>
       </c>
     </row>
@@ -11873,7 +11906,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>12430002</t>
+          <t>12101047</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -11883,7 +11916,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Bolzen</t>
+          <t>Rundstab</t>
         </is>
       </c>
     </row>
@@ -11893,27 +11926,27 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>12601012</t>
+          <t>12205070</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Rippe</t>
+          <t>Motorkonsole hinten Deutz TD 2.9 L4</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>12601013</t>
+          <t>12205073</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -11923,27 +11956,27 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Zylinderlasche</t>
+          <t>Halterung</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>12610002</t>
+          <t>12401061</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Sicherungslasche</t>
+          <t>Scheinwerferhalterung</t>
         </is>
       </c>
     </row>
@@ -11953,17 +11986,17 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>12630002</t>
+          <t>12401232</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Bolzen Ø45x263</t>
+          <t>Haltewinkel</t>
         </is>
       </c>
     </row>
@@ -12069,11 +12102,11 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>13201056</t>
+          <t>13205021</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -12083,7 +12116,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Halteplatte</t>
+          <t>Motorkonsole hinten</t>
         </is>
       </c>
     </row>
@@ -12093,17 +12126,17 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>13201337</t>
+          <t>13205022</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Scheuerschutzblech</t>
+          <t>Motorkonsole hinten</t>
         </is>
       </c>
     </row>
@@ -12113,17 +12146,17 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>13204004</t>
+          <t>13301035</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Seitenblech</t>
+          <t>Seitenteil  rechts vorne</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12166,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>13204007</t>
+          <t>13301038</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -12143,17 +12176,17 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Verbindungsblech</t>
+          <t>Rahmenwand vorne Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>13204008</t>
+          <t>13301050</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -12163,7 +12196,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Distanzblech</t>
+          <t>Knotenblech</t>
         </is>
       </c>
     </row>
@@ -12173,17 +12206,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>13204009</t>
+          <t>13301051</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Schutzblech für Differenzdruckschalter</t>
+          <t>Auflageblech</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12226,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>13204010</t>
+          <t>13301016</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -12203,7 +12236,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Auspuffschutzblech</t>
+          <t>Profilwand links</t>
         </is>
       </c>
     </row>
@@ -12213,47 +12246,47 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>13204012</t>
+          <t>13301017</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Abdeckung</t>
+          <t>Profilwand rechts</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>13204016</t>
+          <t>13301086</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Anschraubblech-Luftfilter</t>
+          <t>Kastenprofil innen Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>13204017</t>
+          <t>13301087</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -12263,27 +12296,27 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Lüftungsblech hinten</t>
+          <t>Auflageeisen</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>13204018</t>
+          <t>13301088</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Abdeckblech Teil 1</t>
+          <t>Kotflügel links vorne</t>
         </is>
       </c>
     </row>
@@ -12293,17 +12326,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>13204019</t>
+          <t>13301089</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Zwischenrohr für Luftansaugung</t>
+          <t>Kotflügel rechts vorne</t>
         </is>
       </c>
     </row>
@@ -12313,17 +12346,17 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>13204023</t>
+          <t>13301033</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Abdeckung Teil 2</t>
+          <t>Trittblech unten</t>
         </is>
       </c>
     </row>
@@ -12333,17 +12366,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>13204024</t>
+          <t>13301093</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Wartungsdeckel hinten</t>
+          <t>Trittblech oben</t>
         </is>
       </c>
     </row>
@@ -12353,17 +12386,17 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>13204029</t>
+          <t>13301094</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Hitzeschutzblech unten</t>
+          <t>Seitenteil links vorne</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12406,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>13204030</t>
+          <t>13401052</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -12383,27 +12416,27 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Hitzeschutzblech oben</t>
+          <t>Kotflügeldeckel</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>13204048</t>
+          <t>13301101</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Halteplatte für Differenzdrucksensor</t>
+          <t>Halterung für Kamera</t>
         </is>
       </c>
     </row>
@@ -12413,27 +12446,27 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>13204049</t>
+          <t>13301076</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Auspuffträger</t>
+          <t>Hydrauliköltankblech Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>13205005</t>
+          <t>13301077</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -12443,7 +12476,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Motorkonsole hinten</t>
+          <t>Dieseltankblech Pfb. 1200</t>
         </is>
       </c>
     </row>
@@ -12453,7 +12486,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>13205006</t>
+          <t>13301078</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -12463,7 +12496,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Motorkonsole links vorne</t>
+          <t>Bodenblech Pfb. 1200</t>
         </is>
       </c>
     </row>
@@ -12473,17 +12506,17 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>13205007</t>
+          <t>13301122</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Motorkonsole rechts vorne</t>
+          <t>Seitenblech links</t>
         </is>
       </c>
     </row>
@@ -12493,17 +12526,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>13205009</t>
+          <t>13301123</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Kühleraufhängung unten links</t>
+          <t>Seitenblech rechts</t>
         </is>
       </c>
     </row>
@@ -12513,27 +12546,27 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>13205011</t>
+          <t>13401042</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Kühleraufhängung unten rechts</t>
+          <t>Rohrstutzen für Dieseltank</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>13205017</t>
+          <t>13401043</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -12543,17 +12576,17 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Verbindungsplatte</t>
+          <t>Schlauchhalterung</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>13205021</t>
+          <t>13401045</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -12563,17 +12596,17 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Motorkonsole hinten</t>
+          <t>Dieselsaugrohr</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>13205022</t>
+          <t>93400019x1</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -12583,17 +12616,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Motorkonsole hinten</t>
+          <t>Anschweißplatte</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>13205026</t>
+          <t>93400019x2</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -12603,37 +12636,37 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Halteblech  für Stecker</t>
+          <t>Schellenhälfte</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>13205027</t>
+          <t>93400019x3</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Haltewinkel für Stecker</t>
+          <t>Deckplatte</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>13206201</t>
+          <t>95006035</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -12643,17 +12676,17 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Lastabweiser vorne</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>13206202</t>
+          <t>95415022</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -12663,27 +12696,27 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Lastabweiser mitte</t>
+          <t>Skt Mutter</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>13206203</t>
+          <t>97600457</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Lastabweiser vorne/hinten</t>
+          <t>Anschweißverschraubung</t>
         </is>
       </c>
     </row>
@@ -12693,17 +12726,17 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>13214048</t>
+          <t>97600461</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Halteplatte</t>
+          <t>Anschweißverschraubung</t>
         </is>
       </c>
     </row>
@@ -12713,27 +12746,27 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>13301009</t>
+          <t>97600467</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Trägerrohr Pfb. 1200</t>
+          <t>Anschweißverschraubung</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>13301010</t>
+          <t>97600470</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -12743,17 +12776,17 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Schottblech</t>
+          <t>Anschweißverschraubung</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>13301011</t>
+          <t>97600480</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -12763,17 +12796,17 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Knotenblech</t>
+          <t>Anschweißverschraubung</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>13301012</t>
+          <t>97601048</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -12783,7 +12816,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Zurrlasche</t>
+          <t>1" Gewinderohr</t>
         </is>
       </c>
     </row>
@@ -12793,17 +12826,17 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>13301016</t>
+          <t>13401598</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Profilwand links</t>
+          <t>Flanschblech</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12846,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>13301017</t>
+          <t>13401899</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -12823,7 +12856,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Profilwand rechts</t>
+          <t>Halteplatte für Kompensator</t>
         </is>
       </c>
     </row>
@@ -12833,7 +12866,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>13301033</t>
+          <t>13401899_MIR1</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -12843,7 +12876,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Trittblech unten</t>
+          <t>Halteplatte für Kompensator</t>
         </is>
       </c>
     </row>
@@ -12853,17 +12886,17 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>13301035</t>
+          <t>13301124</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Seitenteil  rechts vorne</t>
+          <t>Kotflügel rechts hinten</t>
         </is>
       </c>
     </row>
@@ -12873,27 +12906,27 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>13301038</t>
+          <t>13301214</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Rahmenwand vorne Pfb. 1200</t>
+          <t>Kotflügel Sonder links hinten</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>13301050</t>
+          <t>13301126</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -12903,7 +12936,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Knotenblech</t>
+          <t>Seitenteil rechts hinten</t>
         </is>
       </c>
     </row>
@@ -12913,17 +12946,17 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>13301051</t>
+          <t>13301127</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Auflageblech</t>
+          <t>Seitenteil links hinten</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12966,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>13301056</t>
+          <t>13301129</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -12943,17 +12976,17 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Hydrauliköltankdeckel</t>
+          <t>Batteriekasten</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>13301058</t>
+          <t>13301108</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -12963,7 +12996,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Zusatzgewicht</t>
+          <t>Anschlag für Batterie</t>
         </is>
       </c>
     </row>
@@ -12973,17 +13006,17 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>13301076</t>
+          <t>12401107</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Hydrauliköltankblech Pfb. 1200</t>
+          <t>Halterung</t>
         </is>
       </c>
     </row>
@@ -12993,7 +13026,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>13301077</t>
+          <t>13301146</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -13003,7 +13036,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Dieseltankblech Pfb. 1200</t>
+          <t>Halterung für Sicherungsbox</t>
         </is>
       </c>
     </row>
@@ -13013,17 +13046,17 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>13301078</t>
+          <t>12201061</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Bodenblech Pfb. 1200</t>
+          <t>Ausfahrschiene vorne</t>
         </is>
       </c>
     </row>
@@ -13033,17 +13066,17 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>13301086</t>
+          <t>13301009</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Kastenprofil innen Pfb. 1200</t>
+          <t>Trägerrohr Pfb. 1200</t>
         </is>
       </c>
     </row>
@@ -13053,7 +13086,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>13301087</t>
+          <t>13301010</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -13063,57 +13096,57 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Auflageeisen</t>
+          <t>Schottblech</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>13301088</t>
+          <t>13301011</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Kotflügel links vorne</t>
+          <t>Knotenblech</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>13301089</t>
+          <t>13301012</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Kotflügel rechts vorne</t>
+          <t>Zurrlasche</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>13301093</t>
+          <t>13301058</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13123,7 +13156,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>Trittblech oben</t>
+          <t>Zusatzgewicht</t>
         </is>
       </c>
     </row>
@@ -13133,17 +13166,17 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>13301094</t>
+          <t>12201060</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Seitenteil links vorne</t>
+          <t>Ausfahrschiene hinten Pfb. 1200</t>
         </is>
       </c>
     </row>
@@ -13153,37 +13186,37 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>13301101</t>
+          <t>13301112</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Halterung für Kamera</t>
+          <t>Verbindungseisen</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>13301104</t>
+          <t>13401020</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Haltebügel</t>
+          <t>Optionshalter</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13226,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>13301108</t>
+          <t>12401095</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -13203,7 +13236,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Anschlag für Batterie</t>
+          <t>Halteeisen kurz</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13246,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>13301112</t>
+          <t>97600370</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -13223,7 +13256,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Verbindungseisen</t>
+          <t>T-Stutzen T12L</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13266,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>13301113</t>
+          <t>12401096</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13243,17 +13276,17 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>Seitenwand links Ra. 1350</t>
+          <t>Halteeisen lang</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>13301114</t>
+          <t>12601012</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13263,17 +13296,17 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>Gewichtsplatte oben Ra. 1350</t>
+          <t>Rippe</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>13301115</t>
+          <t>12601013</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13283,7 +13316,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>Gewichtsplatte oben 2 Ra. 1350</t>
+          <t>Zylinderlasche</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13326,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>13301116</t>
+          <t>13301113</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -13303,7 +13336,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Gewichtsplatte unten Ra. 1350</t>
+          <t>Seitenwand links Ra. 1350</t>
         </is>
       </c>
     </row>
@@ -13313,17 +13346,17 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>13301122</t>
+          <t>13301114</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Seitenblech links</t>
+          <t>Gewichtsplatte oben Ra. 1350</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13366,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>13301123</t>
+          <t>13301115</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -13343,7 +13376,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Seitenblech rechts</t>
+          <t>Gewichtsplatte oben 2 Ra. 1350</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13386,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>13301124</t>
+          <t>13301116</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -13363,17 +13396,17 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Kotflügel rechts hinten</t>
+          <t>Gewichtsplatte unten Ra. 1350</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>13301126</t>
+          <t>13401019</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -13383,7 +13416,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Seitenteil rechts hinten</t>
+          <t>Knotenblech</t>
         </is>
       </c>
     </row>
@@ -13393,7 +13426,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>13301127</t>
+          <t>13301394</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13403,17 +13436,17 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Seitenteil links hinten</t>
+          <t>Rahmenwand hinten  Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>13301129</t>
+          <t>12405009</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -13423,7 +13456,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Batteriekasten</t>
+          <t>Anschweißbüchse</t>
         </is>
       </c>
     </row>
@@ -13433,17 +13466,17 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>13301132</t>
+          <t>12405024</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Verschleißschiene Pfb.1200</t>
+          <t>Gleitscheibenhalter</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13486,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>13301146</t>
+          <t>13205017</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -13463,27 +13496,27 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Halterung für Sicherungsbox</t>
+          <t>Verbindungsplatte</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>13301214</t>
+          <t>13305031</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Kotflügel Sonder links hinten</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13493,17 +13526,17 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>13301393</t>
+          <t>13305033</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Servicedeckel hinten</t>
+          <t>Verbindungsplatte</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13546,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>13301394</t>
+          <t>13305034</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -13523,7 +13556,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Rahmenwand hinten  Pfb. 1200</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13566,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>13304031</t>
+          <t>13305034_1</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -13543,7 +13576,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Servicedeckel Kotflügel links hinten</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13586,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>13304067</t>
+          <t>13401046</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -13563,7 +13596,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Schlauchkanaldeckel Ra. 1350</t>
+          <t>Zugstangenhalterung vorne</t>
         </is>
       </c>
     </row>
@@ -13573,17 +13606,17 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>13304072</t>
+          <t>13401067</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Tankblech</t>
+          <t>Halteplatte für Ölstandsanzeiger</t>
         </is>
       </c>
     </row>
@@ -13593,17 +13626,17 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>13304074</t>
+          <t>13401069</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Wartungsdeckel für Arbeitshydraulik</t>
+          <t>Schraubblech</t>
         </is>
       </c>
     </row>
@@ -13613,27 +13646,27 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>13304075</t>
+          <t>13401078</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Konsolenblech</t>
+          <t>Zugstangenhalterung</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>13304077</t>
+          <t>13401082</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -13643,27 +13676,27 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Auflageblech</t>
+          <t>Haltewinkel</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>13304084</t>
+          <t>13401084</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Grundblech Schlauchkanal Ra. 1350 Sonder</t>
+          <t>Gewindeblech</t>
         </is>
       </c>
     </row>
@@ -13673,67 +13706,67 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>13304129</t>
+          <t>13401099</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Trittblech vor der Kabine</t>
+          <t>Halterung Scheibenwaschbehälter</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>13305031</t>
+          <t>13405035</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Kabinenlager</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>13305033</t>
+          <t>13405038</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Verbindungsplatte</t>
+          <t>Haltebügel für Kabelbinder</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>13305034</t>
+          <t>12405037</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -13743,17 +13776,17 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Sicherungsblech</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>13305034_1</t>
+          <t>13405053</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -13763,7 +13796,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Verbindungsplatte</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13806,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>13305039</t>
+          <t>13405054</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -13783,7 +13816,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Grundblech für Führungshebel Ra.1300</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13793,17 +13826,17 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>13306023</t>
+          <t>13405054_1</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Plattform hinten links Pfb. 1200</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13813,17 +13846,17 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>13306025</t>
+          <t>13405057</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Plattform hinten rechts</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13866,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>13306031</t>
+          <t>13405057_1</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -13843,7 +13876,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Zugstange Sonder</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13886,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>13306176</t>
+          <t>13405052</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -13863,7 +13896,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Plattform vorne Pfb. 1200</t>
+          <t>Verbindungsplatte</t>
         </is>
       </c>
     </row>
@@ -13873,37 +13906,37 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>13306178</t>
+          <t>13405051</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Plattform hinten Teil 1 Pfb. 1200</t>
+          <t>Zentrierscheibe</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>13401019</t>
+          <t>13405051_1</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Knotenblech</t>
+          <t>Zentrierscheibe</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13946,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>13401020</t>
+          <t>12405023</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -13923,17 +13956,17 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Optionshalter</t>
+          <t>Gleitscheibenhalter</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>13401042</t>
+          <t>13405059</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -13943,17 +13976,17 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Rohrstutzen für Dieseltank</t>
+          <t>Führungsblech</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>13401043</t>
+          <t>13405054_2</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -13963,17 +13996,17 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Schlauchhalterung</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>13401045</t>
+          <t>13405054_3</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -13983,7 +14016,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Dieselsaugrohr</t>
+          <t>Wangenblech</t>
         </is>
       </c>
     </row>
@@ -13993,17 +14026,17 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>13401046</t>
+          <t>13405086</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Zugstangenhalterung vorne</t>
+          <t>Konsole für Batteriehauptschalter</t>
         </is>
       </c>
     </row>
@@ -14013,17 +14046,17 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>13401052</t>
+          <t>13406005</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Kotflügeldeckel</t>
+          <t>Zusatzgewicht</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14066,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>13401067</t>
+          <t>13417146</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -14043,37 +14076,37 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Halteplatte für Ölstandsanzeiger</t>
+          <t>Gewindeplatte für Schlauchschere</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>13401069</t>
+          <t>15104006</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Schraubblech</t>
+          <t>Anschlag</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>13401078</t>
+          <t>95008040</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -14083,17 +14116,17 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>Zugstangenhalterung</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>13401082</t>
+          <t>95008070</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -14103,17 +14136,17 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Haltewinkel</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>13401084</t>
+          <t>95010040</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -14123,17 +14156,17 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Gewindeblech</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>13401087</t>
+          <t>95400020</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -14143,17 +14176,17 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Servicedeckel unten</t>
+          <t>Skt Mutter</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>13401088</t>
+          <t>95417028</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -14163,27 +14196,27 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Servicedeckel unten</t>
+          <t>Flachmutter</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>13401095</t>
+          <t>13201337</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>Lampenschutzgitter vorne</t>
+          <t>Scheuerschutzblech</t>
         </is>
       </c>
     </row>
@@ -14193,17 +14226,17 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>13401099</t>
+          <t>13304031</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Halterung Scheibenwaschbehälter</t>
+          <t>Servicedeckel Kotflügel links hinten</t>
         </is>
       </c>
     </row>
@@ -14213,17 +14246,17 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>13401530</t>
+          <t>12404039</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>Rahmenblech für Elektrobox</t>
+          <t>Gewindelasche</t>
         </is>
       </c>
     </row>
@@ -14233,17 +14266,17 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>13401532</t>
+          <t>13304067</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>Servicedeckel für Elektrobox</t>
+          <t>Schlauchkanaldeckel Ra. 1350</t>
         </is>
       </c>
     </row>
@@ -14253,37 +14286,37 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>13401598</t>
+          <t>13304084</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Flanschblech</t>
+          <t>Grundblech Schlauchkanal Ra. 1350 Sonder</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>13401804</t>
+          <t>15101116</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Schutzblech für Leitungswiderstand</t>
+          <t>Gewindeplatte 2-fach</t>
         </is>
       </c>
     </row>
@@ -14293,17 +14326,17 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>13401811</t>
+          <t>13304129</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>Haltewinkel</t>
+          <t>Trittblech vor der Kabine</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14346,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>13401899</t>
+          <t>13204009</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -14323,7 +14356,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Halteplatte für Kompensator</t>
+          <t>Schutzblech für Differenzdruckschalter</t>
         </is>
       </c>
     </row>
@@ -14333,47 +14366,47 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>13401899_MIR1</t>
+          <t>13204010</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Halteplatte für Kompensator</t>
+          <t>Auspuffschutzblech</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>13404007</t>
+          <t>13204012</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Knotenblech</t>
+          <t>Abdeckung</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>13404009</t>
+          <t>12204304</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -14383,27 +14416,27 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Lasche</t>
+          <t>Luftfilterhalter</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>13404010</t>
+          <t>12204305</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>Schraubblech</t>
+          <t>Lastabweiser Luftansaugung</t>
         </is>
       </c>
     </row>
@@ -14413,27 +14446,27 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>13404029</t>
+          <t>13204016</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Deckblech</t>
+          <t>Anschraubblech-Luftfilter</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>13404048</t>
+          <t>13204017</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -14443,17 +14476,17 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>Gewindelasche</t>
+          <t>Lüftungsblech hinten</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>13404049</t>
+          <t>13204018</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -14463,17 +14496,17 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Gewindelasche</t>
+          <t>Abdeckblech Teil 1</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>13404311</t>
+          <t>13204019</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -14483,97 +14516,97 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Lasche GDF</t>
+          <t>Zwischenrohr für Luftansaugung</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>13405035</t>
+          <t>12204343</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>Kabinenlager</t>
+          <t>Befestigungsblech</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>13405038</t>
+          <t>13404007</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Haltebügel für Kabelbinder</t>
+          <t>Knotenblech</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>13405051</t>
+          <t>13404009</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Zentrierscheibe</t>
+          <t>Lasche</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>13405051_1</t>
+          <t>13404010</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Zentrierscheibe</t>
+          <t>Schraubblech</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>13405052</t>
+          <t>99900007</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -14583,17 +14616,17 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>Verbindungsplatte</t>
+          <t>Schweißbolzen Ø3x20</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>13405053</t>
+          <t>99900008</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -14603,7 +14636,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Verbindungsplatte</t>
+          <t>Tellerclip Ø38x1,5</t>
         </is>
       </c>
     </row>
@@ -14613,17 +14646,17 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>13405054</t>
+          <t>13204023</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Abdeckung Teil 2</t>
         </is>
       </c>
     </row>
@@ -14633,27 +14666,27 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>13405054_1</t>
+          <t>13204024</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Wartungsdeckel hinten</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>13405054_2</t>
+          <t>13404311</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -14663,7 +14696,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Lasche GDF</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14706,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>13405054_3</t>
+          <t>13204007</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -14683,7 +14716,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Verbindungsblech</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14726,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>13405057</t>
+          <t>13204008</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -14703,7 +14736,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Distanzblech</t>
         </is>
       </c>
     </row>
@@ -14713,7 +14746,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>13405057_1</t>
+          <t>13204049</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -14723,17 +14756,17 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Wangenblech</t>
+          <t>Auspuffträger</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>13405059</t>
+          <t>13404029</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -14743,47 +14776,47 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Führungsblech</t>
+          <t>Deckblech</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>13405086</t>
+          <t>95005016</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Konsole für Batteriehauptschalter</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>13405143</t>
+          <t>95008020</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Montageblech für Hochdruckfilter</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
@@ -14793,17 +14826,17 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>13406005</t>
+          <t>12404022</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>Zusatzgewicht</t>
+          <t>Schutzbügel</t>
         </is>
       </c>
     </row>
@@ -14813,17 +14846,17 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>13406133</t>
+          <t>13204004</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>Halterung für Gasdruckfedern</t>
+          <t>Seitenblech</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14866,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>13414233</t>
+          <t>13304072</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -14843,7 +14876,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Kastenblech für Elektrobox</t>
+          <t>Tankblech</t>
         </is>
       </c>
     </row>
@@ -14853,7 +14886,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>13414239</t>
+          <t>13304077</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -14863,7 +14896,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Halteplatte für Twinbox</t>
+          <t>Auflageblech</t>
         </is>
       </c>
     </row>
@@ -14873,7 +14906,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>13417146</t>
+          <t>91500096</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -14883,7 +14916,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Gewindeplatte für Schlauchschere</t>
+          <t>Tankeinfüllstutzen</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14926,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>13430020</t>
+          <t>13304074</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -14903,27 +14936,27 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Anschraubzapfen</t>
+          <t>Wartungsdeckel für Arbeitshydraulik</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>13706229</t>
+          <t>13304075</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Lasche für Gasdruckdämpfer</t>
+          <t>Konsolenblech</t>
         </is>
       </c>
     </row>
@@ -14933,27 +14966,27 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>13801072</t>
+          <t>13404048</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Haltebügel</t>
+          <t>Gewindelasche</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>13804018</t>
+          <t>13404049</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -14963,17 +14996,17 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Lampenschutzgitter hinten</t>
+          <t>Gewindelasche</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>14030006</t>
+          <t>13204048</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -14983,7 +15016,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Bolzen</t>
+          <t>Halteplatte für Differenzdrucksensor</t>
         </is>
       </c>
     </row>
@@ -14993,57 +15026,57 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>15101044</t>
+          <t>13305039</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Tankdeckel</t>
+          <t>Grundblech für Führungshebel Ra.1300</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>15101116</t>
+          <t>11501233</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Gewindeplatte 2-fach</t>
+          <t>Lagerbüchse</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>15104006</t>
+          <t>98501167</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Anschlag</t>
+          <t>Büchse</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15086,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>15130020</t>
+          <t>93200269</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -15063,17 +15096,17 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Bolzen</t>
+          <t>Anschlagpuffer</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>15204047</t>
+          <t>96000006</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -15083,17 +15116,17 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Gelenksbolzen</t>
+          <t>Scheibe</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>15204077</t>
+          <t>95006025</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -15103,7 +15136,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Lasche</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15146,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>15204078</t>
+          <t>93400032</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -15123,37 +15156,37 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Unterlage</t>
+          <t>Aufbauschraube SRS AF 3 D</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>310008</t>
+          <t>93400018x2</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Sicherungslasche für Bolzen Ø35</t>
+          <t>Schellenhälfte</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>91500096</t>
+          <t>93400023x1</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -15163,17 +15196,17 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Tankeinfüllstutzen</t>
+          <t>Schellenhälfte</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>92118010</t>
+          <t>93400023x2</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -15183,17 +15216,17 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Pressarmatur 10L</t>
+          <t>Deckplatte</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>92118014</t>
+          <t>95008035</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -15203,7 +15236,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Pressarmatur 15L</t>
+          <t>Skt Schraube</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15246,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>93200095_1</t>
+          <t>93400101</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -15221,15 +15254,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D768" t="inlineStr"/>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Deckplatte</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>93200095_2</t>
+          <t>95006045</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15237,15 +15274,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D769" t="inlineStr"/>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Skt Schraube</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>93200095_3</t>
+          <t>92118010</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -15253,15 +15294,19 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D770" t="inlineStr"/>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Pressarmatur 10L</t>
+        </is>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>93200269</t>
+          <t>92118014</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -15271,17 +15316,17 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Anschlagpuffer</t>
+          <t>Pressarmatur 15L</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>93400018x2</t>
+          <t>13306031</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -15291,57 +15336,57 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Schellenhälfte</t>
+          <t>Zugstange Sonder</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>93400019x1</t>
+          <t>13406133</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Anschweißplatte</t>
+          <t>Halterung für Gasdruckfedern</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>93400019x2</t>
+          <t>13405143</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>Schellenhälfte</t>
+          <t>Montageblech für Hochdruckfilter</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>93400019x3</t>
+          <t>13306176</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15351,17 +15396,17 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>Deckplatte</t>
+          <t>Plattform vorne Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>93400023x1</t>
+          <t>12404681</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15371,37 +15416,37 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>Schellenhälfte</t>
+          <t>Anschlageisen</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>93400023x2</t>
+          <t>12404703</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Deckplatte</t>
+          <t>Deckel</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>93400032</t>
+          <t>93200095_1</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -15409,11 +15454,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>Aufbauschraube SRS AF 3 D</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -15421,7 +15462,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>93400101</t>
+          <t>93200095_2</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -15429,19 +15470,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>Deckplatte</t>
-        </is>
-      </c>
+      <c r="D779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>95005016</t>
+          <t>93200095_3</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -15449,11 +15486,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>Skt Schraube</t>
-        </is>
-      </c>
+      <c r="D780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -15461,7 +15494,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>95006025</t>
+          <t>13306178</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -15471,27 +15504,27 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Plattform hinten Teil 1 Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>95006035</t>
+          <t>13306025</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Plattform hinten rechts</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15534,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>95006045</t>
+          <t>13706229</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -15511,17 +15544,17 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Lasche für Gasdruckdämpfer</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>95008020</t>
+          <t>15204047</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -15531,17 +15564,17 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Gelenksbolzen</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>95008035</t>
+          <t>15204077</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -15551,7 +15584,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Lasche</t>
         </is>
       </c>
     </row>
@@ -15561,7 +15594,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>95008040</t>
+          <t>15204078</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -15571,17 +15604,17 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Unterlage</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>95008070</t>
+          <t>96000020</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -15591,17 +15624,17 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Scheibe</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>95010040</t>
+          <t>96404040</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -15611,37 +15644,37 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>Skt Schraube</t>
+          <t>Splint</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>95400008</t>
+          <t>13306023</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>Skt Mutter</t>
+          <t>Plattform hinten links Pfb. 1200</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>95400020</t>
+          <t>13401087</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -15651,17 +15684,17 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>Skt Mutter</t>
+          <t>Servicedeckel unten</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>95415022</t>
+          <t>13401088</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -15671,7 +15704,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>Skt Mutter</t>
+          <t>Servicedeckel unten</t>
         </is>
       </c>
     </row>
@@ -15681,7 +15714,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>95417028</t>
+          <t>13401095</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -15691,57 +15724,57 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>Flachmutter</t>
+          <t>Lampenschutzgitter vorne</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>96000006</t>
+          <t>13401804</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>Scheibe</t>
+          <t>Schutzblech für Leitungswiderstand</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>96000020</t>
+          <t>13401811</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>Scheibe</t>
+          <t>Haltewinkel</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>96002010</t>
+          <t>13430020</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -15751,27 +15784,27 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>Federring</t>
+          <t>Anschraubzapfen</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>96404040</t>
+          <t>13801072</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Splint</t>
+          <t>Haltebügel</t>
         </is>
       </c>
     </row>
@@ -15781,7 +15814,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>97600370</t>
+          <t>13804018</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -15791,7 +15824,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>T-Stutzen T12L</t>
+          <t>Lampenschutzgitter hinten</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15834,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>97600457</t>
+          <t>14030006</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -15811,7 +15844,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Anschweißverschraubung</t>
+          <t>Bolzen</t>
         </is>
       </c>
     </row>
@@ -15821,27 +15854,27 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>97600461</t>
+          <t>15101044</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>Anschweißverschraubung</t>
+          <t>Tankdeckel</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>97600467</t>
+          <t>15130020</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -15851,17 +15884,17 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>Anschweißverschraubung</t>
+          <t>Bolzen</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>97600470</t>
+          <t>96002010</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -15871,7 +15904,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>Anschweißverschraubung</t>
+          <t>Federring</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15914,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>97600480</t>
+          <t>13206202</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -15891,7 +15924,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Anschweißverschraubung</t>
+          <t>Lastabweiser mitte</t>
         </is>
       </c>
     </row>
@@ -15901,7 +15934,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>97601048</t>
+          <t>13206201</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -15911,67 +15944,27 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>1" Gewinderohr</t>
+          <t>Lastabweiser vorne</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>98501167</t>
+          <t>13206203</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>Büchse</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="n">
-        <v>12</v>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>99900007</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>Schweißbolzen Ø3x20</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="n">
-        <v>12</v>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>99900008</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>Tellerclip Ø38x1,5</t>
+          <t>Lastabweiser vorne/hinten</t>
         </is>
       </c>
     </row>
